--- a/nuno-dataset/test-oxigen-01/content/results/metrics_9_6.xlsx
+++ b/nuno-dataset/test-oxigen-01/content/results/metrics_9_6.xlsx
@@ -478,404 +478,404 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_24</t>
+          <t>model_9_6_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8932663776673184</v>
+        <v>0.7328767345619851</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4593721515252079</v>
+        <v>0.3805099758871867</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5505549500608802</v>
+        <v>-3.417986600739741</v>
       </c>
       <c r="E2" t="n">
-        <v>0.486382017043172</v>
+        <v>-0.06971119901748346</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1181226745247841</v>
+        <v>0.2956267297267914</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5452945828437805</v>
+        <v>0.5802342891693115</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1159729734063148</v>
+        <v>0.9144955277442932</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3432613909244537</v>
+        <v>0.7375336885452271</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_23</t>
+          <t>model_9_6_12</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8945155560937017</v>
+        <v>0.7386749108366446</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4677134785921121</v>
+        <v>0.4688206992886625</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5519029472792166</v>
+        <v>-3.713422492051304</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4932945277656058</v>
+        <v>-0.04793730382943395</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1167402043938637</v>
+        <v>0.2892098724842072</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5368812680244446</v>
+        <v>0.4975196421146393</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1156251430511475</v>
+        <v>0.9756488800048828</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3386416137218475</v>
+        <v>0.7225213050842285</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_22</t>
+          <t>model_9_6_8</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.895030946416899</v>
+        <v>0.7400648860367045</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4715123967622238</v>
+        <v>0.3985354511040827</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5512432796687352</v>
+        <v>-3.222075901835094</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4962087562135828</v>
+        <v>-0.02906873460118553</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1161698177456856</v>
+        <v>0.2876715660095215</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5330495834350586</v>
+        <v>0.563351035118103</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1157953590154648</v>
+        <v>0.8739432096481323</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3366940021514893</v>
+        <v>0.709511935710907</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_21</t>
+          <t>model_9_6_15</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8951824898838606</v>
+        <v>0.7402085460248129</v>
       </c>
       <c r="C5" t="n">
-        <v>0.472614854104182</v>
+        <v>0.4955811734983552</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5509785586729758</v>
+        <v>-3.856594134331268</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4970403917965864</v>
+        <v>-0.04891961712687132</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1160020977258682</v>
+        <v>0.2875125706195831</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5319375991821289</v>
+        <v>0.4724549055099487</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1158636659383774</v>
+        <v>1.005284547805786</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3361381590366364</v>
+        <v>0.7231984734535217</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_20</t>
+          <t>model_9_6_14</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8953758884440192</v>
+        <v>0.7410105369714249</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4739374629152876</v>
+        <v>0.4970957948519655</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5510342352453179</v>
+        <v>-3.833416851156634</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4981048742689789</v>
+        <v>-0.04455263387517583</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1157880574464798</v>
+        <v>0.2866249978542328</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5306035876274109</v>
+        <v>0.471036285161972</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1158493012189865</v>
+        <v>1.000486969947815</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3354267776012421</v>
+        <v>0.7201876044273376</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_19</t>
+          <t>model_9_6_17</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8962111720615621</v>
+        <v>0.7428256317492985</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4800385732610345</v>
+        <v>0.5096458390125644</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5500217059522754</v>
+        <v>-3.850825120858295</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5028002169096649</v>
+        <v>-0.03798906894783638</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1148636490106583</v>
+        <v>0.2846162617206573</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5244497656822205</v>
+        <v>0.4592815041542053</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1161105707287788</v>
+        <v>1.004090428352356</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3322887718677521</v>
+        <v>0.7156622409820557</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_18</t>
+          <t>model_9_6_16</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8964034944216963</v>
+        <v>0.7434119287197412</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4813328183025817</v>
+        <v>0.5094229280283432</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5502290489551549</v>
+        <v>-3.81288107314812</v>
       </c>
       <c r="E8" t="n">
-        <v>0.503869415838947</v>
+        <v>-0.03278887153165178</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1146508008241653</v>
+        <v>0.2839674055576324</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5231443643569946</v>
+        <v>0.4594902396202087</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1160570681095123</v>
+        <v>0.9962362051010132</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3315742015838623</v>
+        <v>0.7120768427848816</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_17</t>
+          <t>model_9_6_13</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.896585948090901</v>
+        <v>0.744408237435329</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4825222745233174</v>
+        <v>0.5088959877961279</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5505922246194372</v>
+        <v>-3.749958608424032</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5048852915322732</v>
+        <v>-0.02427789563681015</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1144488975405693</v>
+        <v>0.2828647792339325</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5219447016716003</v>
+        <v>0.4599838256835938</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1159633547067642</v>
+        <v>0.9832116365432739</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3308952450752258</v>
+        <v>0.7062087059020996</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_16</t>
+          <t>model_9_6_20</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8973045602481775</v>
+        <v>0.7449117665157929</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4872038962793188</v>
+        <v>0.5341386629614001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5521647105589778</v>
+        <v>-3.90947737287561</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5089112091193745</v>
+        <v>-0.02866218765518047</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1136535927653313</v>
+        <v>0.2823074758052826</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5172226428985596</v>
+        <v>0.436340719461441</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1155575960874557</v>
+        <v>1.016231060028076</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3282046616077423</v>
+        <v>0.7092316150665283</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_15</t>
+          <t>model_9_6_19</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8974377264521723</v>
+        <v>0.7470412308647495</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4880186057007513</v>
+        <v>0.5405011292416837</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5526294501832187</v>
+        <v>-3.861162572234061</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5096467792107052</v>
+        <v>-0.01725753464813162</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1135062128305435</v>
+        <v>0.2799508273601532</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5164008736610413</v>
+        <v>0.4303814172744751</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1154376789927483</v>
+        <v>1.006230115890503</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3277130722999573</v>
+        <v>0.7013684511184692</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_14</t>
+          <t>model_9_6_18</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8976585582825324</v>
+        <v>0.7470623542116157</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4894405572993695</v>
+        <v>0.5365870040944307</v>
       </c>
       <c r="D12" t="n">
-        <v>0.55312871808866</v>
+        <v>-3.838490979921124</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5108765001450084</v>
+        <v>-0.0168693073790982</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1132618188858032</v>
+        <v>0.2799274325370789</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5149666666984558</v>
+        <v>0.434047520160675</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1153088510036469</v>
+        <v>1.001537322998047</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3268912136554718</v>
+        <v>0.7011008262634277</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_13</t>
+          <t>model_9_6_21</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.897818681486624</v>
+        <v>0.7485739121947153</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4906358167968901</v>
+        <v>0.5613722332266897</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5529967398848712</v>
+        <v>-3.913855054416311</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5118054664961119</v>
+        <v>-0.009691270765941118</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1130846068263054</v>
+        <v>0.2782545983791351</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5137611031532288</v>
+        <v>0.4108329117298126</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1153429076075554</v>
+        <v>1.017137169837952</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3262703716754913</v>
+        <v>0.6961517333984375</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_12</t>
+          <t>model_9_6_10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8995147761235032</v>
+        <v>0.7508040117480885</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5017075443267671</v>
+        <v>0.486025424555709</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5566062967110355</v>
+        <v>-3.326130239702274</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5213074353959615</v>
+        <v>0.01915069638267908</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1112075299024582</v>
+        <v>0.2757865488529205</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5025937557220459</v>
+        <v>0.481405109167099</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1144115105271339</v>
+        <v>0.8954818248748779</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3199200332164764</v>
+        <v>0.676266074180603</v>
       </c>
     </row>
     <row r="15">
@@ -885,121 +885,121 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9015817252297281</v>
+        <v>0.7509832823030691</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5166457221881411</v>
+        <v>0.4885617155367659</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5551327534675283</v>
+        <v>-3.339314832003774</v>
       </c>
       <c r="E15" t="n">
-        <v>0.532975413459738</v>
+        <v>0.0191139159367224</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1089200302958488</v>
+        <v>0.2755881249904633</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4875266849994659</v>
+        <v>0.4790295362472534</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1147917360067368</v>
+        <v>0.8982109427452087</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3121220767498016</v>
+        <v>0.6762914061546326</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_10</t>
+          <t>model_9_6_23</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9027806739478662</v>
+        <v>0.7532162771807592</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5245986301230614</v>
+        <v>0.5766184847328564</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5576904947085259</v>
+        <v>-3.819890958157604</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5397945665434105</v>
+        <v>0.01454691396661245</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1075931414961815</v>
+        <v>0.2731168568134308</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4795051217079163</v>
+        <v>0.3965527415275574</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1141317486763</v>
+        <v>0.9976872205734253</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3075646758079529</v>
+        <v>0.6794402599334717</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_9</t>
+          <t>model_9_6_24</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9044259781792358</v>
+        <v>0.7532689983366329</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5361719691756697</v>
+        <v>0.5771854746178926</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5596418728565955</v>
+        <v>-3.82133647645592</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5493988316252584</v>
+        <v>0.0147517998436365</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1057722717523575</v>
+        <v>0.2730585038661957</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4678318202495575</v>
+        <v>0.396021693944931</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1136282235383987</v>
+        <v>0.997986376285553</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3011459410190582</v>
+        <v>0.6792989373207092</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_8</t>
+          <t>model_9_6_22</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9063342974684475</v>
+        <v>0.7536555661719005</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5490038179909384</v>
+        <v>0.576820728819007</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5634759381985793</v>
+        <v>-3.803862054976987</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5603447711881167</v>
+        <v>0.01695855371040611</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1036603301763535</v>
+        <v>0.2726306915283203</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4548892378807068</v>
+        <v>0.3963633179664612</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1126388981938362</v>
+        <v>0.9943692684173584</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2938306033611298</v>
+        <v>0.6777775287628174</v>
       </c>
     </row>
     <row r="19">
@@ -1009,28 +1009,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9098504770174256</v>
+        <v>0.7549227016107316</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5751937757799028</v>
+        <v>0.4295654691935687</v>
       </c>
       <c r="D19" t="n">
-        <v>0.56110723276063</v>
+        <v>-2.763982173971662</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5808417422651436</v>
+        <v>0.05796718551901892</v>
       </c>
       <c r="F19" t="n">
-        <v>0.09976895898580551</v>
+        <v>0.2712283432483673</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4284732043743134</v>
+        <v>0.5342873334884644</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1132501065731049</v>
+        <v>0.7791206836700439</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2801320254802704</v>
+        <v>0.6495032906532288</v>
       </c>
     </row>
     <row r="20">
@@ -1040,28 +1040,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9114675609398244</v>
+        <v>0.758311225627606</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5885978326789272</v>
+        <v>0.4380835196485978</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5603441183754025</v>
+        <v>-2.673539271157212</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5914120034048195</v>
+        <v>0.07686934589283267</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09797932207584381</v>
+        <v>0.2674782574176788</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4149534404277802</v>
+        <v>0.526309072971344</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1134470254182816</v>
+        <v>0.7603995800018311</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2730677127838135</v>
+        <v>0.6364707946777344</v>
       </c>
     </row>
     <row r="21">
@@ -1071,121 +1071,121 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9122994582761053</v>
+        <v>0.7743732793969738</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5946498292578406</v>
+        <v>0.4757306118273238</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5615000109203117</v>
+        <v>-2.204515713690007</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5964567031637897</v>
+        <v>0.1702085912041101</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09705865383148193</v>
+        <v>0.2497023195028305</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4088492095470428</v>
+        <v>0.4910475313663483</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1131487488746643</v>
+        <v>0.6633146405220032</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2696962356567383</v>
+        <v>0.5721161961555481</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_2</t>
+          <t>model_9_6_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.914883841997897</v>
+        <v>0.7986618108137888</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6282530653468512</v>
+        <v>0.5502598722810187</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5330522523367267</v>
+        <v>-1.506917313745948</v>
       </c>
       <c r="E22" t="n">
-        <v>0.618136745519583</v>
+        <v>0.3223696271859453</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09419850260019302</v>
+        <v>0.2228220552206039</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3749558925628662</v>
+        <v>0.4212410748004913</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1204892992973328</v>
+        <v>0.518916130065918</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2552070021629333</v>
+        <v>0.4672057628631592</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_4</t>
+          <t>model_9_6_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9152282777274023</v>
+        <v>0.8503081068627573</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6201451349596914</v>
+        <v>0.7257049924375729</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5471894470725653</v>
+        <v>-0.0878365675647772</v>
       </c>
       <c r="E23" t="n">
-        <v>0.614227574803527</v>
+        <v>0.6490385237456615</v>
       </c>
       <c r="F23" t="n">
-        <v>0.09381731599569321</v>
+        <v>0.1656648069620132</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3831337988376617</v>
+        <v>0.2569135427474976</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1168413907289505</v>
+        <v>0.2251753509044647</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2578195631504059</v>
+        <v>0.2419773489236832</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_3</t>
+          <t>model_9_6_0</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9161240617047156</v>
+        <v>0.8535807063265186</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6265944658475473</v>
+        <v>0.8346875860686223</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5477233295434295</v>
+        <v>0.719773166631799</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6194770267149643</v>
+        <v>0.841517328554682</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09282594919204712</v>
+        <v>0.1620430052280426</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3766287863254547</v>
+        <v>0.1548369228839874</v>
       </c>
       <c r="H24" t="n">
-        <v>0.116703636944294</v>
+        <v>0.0580051988363266</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2543112933635712</v>
+        <v>0.1092690378427505</v>
       </c>
     </row>
     <row r="25">
@@ -1195,59 +1195,59 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9183150973268459</v>
+        <v>0.8573265037749034</v>
       </c>
       <c r="C25" t="n">
-        <v>0.662879640531305</v>
+        <v>0.8274424566445576</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5167109450415159</v>
+        <v>0.6906711651029324</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6428353385606177</v>
+        <v>0.8321955610150702</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09040112048387527</v>
+        <v>0.1578975170850754</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3400304019451141</v>
+        <v>0.1616229563951492</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1247059479355812</v>
+        <v>0.06402912735939026</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2387004494667053</v>
+        <v>0.1156961098313332</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_9_6_0</t>
+          <t>model_9_6_2</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9221186183530408</v>
+        <v>0.8764649190905721</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7090518084687112</v>
+        <v>0.8246128467734545</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4645551544101165</v>
+        <v>0.5020216662531742</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6702480692777144</v>
+        <v>0.8035075973066473</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08619173616170883</v>
+        <v>0.1367169469594955</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2934596836566925</v>
+        <v>0.1642732471227646</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1381640136241913</v>
+        <v>0.1030783951282501</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2203799486160278</v>
+        <v>0.1354756057262421</v>
       </c>
     </row>
   </sheetData>
